--- a/RNN_python/output_data_test/anom_data9.xlsx
+++ b/RNN_python/output_data_test/anom_data9.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43112</v>
+        <v>43082</v>
       </c>
       <c r="D2" t="n">
-        <v>-18.49491383116781</v>
+        <v>19.37387528385038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43112.04166666666</v>
+        <v>43082.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.24544414830989</v>
+        <v>58.71129854388928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43112.08333333334</v>
+        <v>43082.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.05917406707887</v>
+        <v>10.81943912389066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43112.125</v>
+        <v>43082.125</v>
       </c>
       <c r="D5" t="n">
-        <v>-13.93545193206502</v>
+        <v>7.632792256855595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43112.16666666666</v>
+        <v>43082.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.97983906195863</v>
+        <v>15.91698160883315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43112.20833333334</v>
+        <v>43082.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>-11.4058800915344</v>
+        <v>25.67779243892284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43112.25</v>
+        <v>43082.25</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.98229473136351</v>
+        <v>39.78241750066167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43112.29166666666</v>
+        <v>43082.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>44.49928057947304</v>
+        <v>365.9021003926307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43112.33333333334</v>
+        <v>43082.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>264.5125564122223</v>
+        <v>430.7926610522668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43112.375</v>
+        <v>43082.375</v>
       </c>
       <c r="D11" t="n">
-        <v>440.1399316607095</v>
+        <v>476.84293885139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43112.41666666666</v>
+        <v>43082.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>432.6113655701412</v>
+        <v>345.1143204046207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43112.45833333334</v>
+        <v>43082.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>371.3347034727398</v>
+        <v>337.4881178388636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43112.5</v>
+        <v>43082.5</v>
       </c>
       <c r="D14" t="n">
-        <v>318.454248128743</v>
+        <v>273.4443984570389</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43112.54166666666</v>
+        <v>43082.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>276.7691378362812</v>
+        <v>225.9396621359035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43112.58333333334</v>
+        <v>43082.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>235.8216597997692</v>
+        <v>173.5262199408549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43112.625</v>
+        <v>43082.625</v>
       </c>
       <c r="D17" t="n">
-        <v>193.2507689628952</v>
+        <v>128.1326169417449</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43112.66666666666</v>
+        <v>43082.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>150.9957625770277</v>
+        <v>92.48240910572869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43112.70833333334</v>
+        <v>43082.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>112.746517526533</v>
+        <v>65.8724008816573</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43112.75</v>
+        <v>43082.75</v>
       </c>
       <c r="D20" t="n">
-        <v>80.70556033231892</v>
+        <v>46.89722706445417</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43112.79166666666</v>
+        <v>43082.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>55.19257642571954</v>
+        <v>34.09326981442885</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43112.83333333334</v>
+        <v>43082.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>35.7461036981334</v>
+        <v>26.12688956428237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43112.875</v>
+        <v>43082.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21.83245031049475</v>
+        <v>21.61273616257618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43112.91666666666</v>
+        <v>43082.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>12.92726974960364</v>
+        <v>18.97373513614437</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43112.95833333334</v>
+        <v>43082.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8.362966403165473</v>
+        <v>16.92825253109376</v>
       </c>
     </row>
   </sheetData>
@@ -709,61 +709,61 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43112</v>
+        <v>43082</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43112.04166666666</v>
+        <v>43082.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43112.08333333334</v>
+        <v>43082.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43112.125</v>
+        <v>43082.125</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43112.16666666666</v>
+        <v>43082.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43112.20833333334</v>
+        <v>43082.20833333334</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -773,180 +773,180 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43112.25</v>
+        <v>43082.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43112.29166666666</v>
+        <v>43082.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43112.33333333334</v>
+        <v>43082.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>420</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43112.375</v>
+        <v>43082.375</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43112.41666666666</v>
+        <v>43082.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>370</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43112.45833333334</v>
+        <v>43082.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43112.5</v>
+        <v>43082.5</v>
       </c>
       <c r="D14" t="n">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43112.54166666666</v>
+        <v>43082.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43112.58333333334</v>
+        <v>43082.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43112.625</v>
+        <v>43082.625</v>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43112.66666666666</v>
+        <v>43082.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43112.70833333334</v>
+        <v>43082.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43112.75</v>
+        <v>43082.75</v>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43112.79166666666</v>
+        <v>43082.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43112.83333333334</v>
+        <v>43082.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43112.875</v>
+        <v>43082.875</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43112.91666666666</v>
+        <v>43082.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43112.95833333334</v>
+        <v>43082.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data9.xlsx
+++ b/RNN_python/output_data_test/anom_data9.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43082</v>
+        <v>43133</v>
       </c>
       <c r="D2" t="n">
-        <v>19.37387528385038</v>
+        <v>61.18973790634307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43082.04166666666</v>
+        <v>43133.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>58.71129854388928</v>
+        <v>39.121884687356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43082.08333333334</v>
+        <v>43133.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>10.81943912389066</v>
+        <v>61.32430738858928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43082.125</v>
+        <v>43133.125</v>
       </c>
       <c r="D5" t="n">
-        <v>7.632792256855595</v>
+        <v>89.1268345637128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43082.16666666666</v>
+        <v>43133.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>15.91698160883315</v>
+        <v>106.5677860063631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43082.20833333334</v>
+        <v>43133.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>25.67779243892284</v>
+        <v>128.7113851925364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43082.25</v>
+        <v>43133.25</v>
       </c>
       <c r="D8" t="n">
-        <v>39.78241750066167</v>
+        <v>144.1182357851106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43082.29166666666</v>
+        <v>43133.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>365.9021003926307</v>
+        <v>153.5594222022474</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43082.33333333334</v>
+        <v>43133.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>430.7926610522668</v>
+        <v>153.3267741466836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43082.375</v>
+        <v>43133.375</v>
       </c>
       <c r="D11" t="n">
-        <v>476.84293885139</v>
+        <v>151.2045324852956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43082.41666666666</v>
+        <v>43133.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>345.1143204046207</v>
+        <v>140.8112547856898</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43082.45833333334</v>
+        <v>43133.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>337.4881178388636</v>
+        <v>133.1510200712816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43082.5</v>
+        <v>43133.5</v>
       </c>
       <c r="D14" t="n">
-        <v>273.4443984570389</v>
+        <v>123.3028405682685</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43082.54166666666</v>
+        <v>43133.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>225.9396621359035</v>
+        <v>118.9061030875508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43082.58333333334</v>
+        <v>43133.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>173.5262199408549</v>
+        <v>111.7152298581209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43082.625</v>
+        <v>43133.625</v>
       </c>
       <c r="D17" t="n">
-        <v>128.1326169417449</v>
+        <v>108.2315240575155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43082.66666666666</v>
+        <v>43133.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>92.48240910572869</v>
+        <v>102.5588994554728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43082.70833333334</v>
+        <v>43133.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>65.8724008816573</v>
+        <v>99.29091381385078</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43082.75</v>
+        <v>43133.75</v>
       </c>
       <c r="D20" t="n">
-        <v>46.89722706445417</v>
+        <v>95.30737446330788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43082.79166666666</v>
+        <v>43133.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>34.09326981442885</v>
+        <v>92.76115791936786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43082.83333333334</v>
+        <v>43133.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>26.12688956428237</v>
+        <v>90.31691382229309</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43082.875</v>
+        <v>43133.875</v>
       </c>
       <c r="D23" t="n">
-        <v>21.61273616257618</v>
+        <v>88.59566491395589</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43082.91666666666</v>
+        <v>43133.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>18.97373513614437</v>
+        <v>87.18588668936118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43082.95833333334</v>
+        <v>43133.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>16.92825253109376</v>
+        <v>89.53844400219128</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43082</v>
+        <v>43133</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43082.04166666666</v>
+        <v>43133.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43082.08333333334</v>
+        <v>43133.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43082.125</v>
+        <v>43133.125</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43082.16666666666</v>
+        <v>43133.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43082.20833333334</v>
+        <v>43133.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43082.25</v>
+        <v>43133.25</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43082.29166666666</v>
+        <v>43133.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43082.33333333334</v>
+        <v>43133.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>479</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43082.375</v>
+        <v>43133.375</v>
       </c>
       <c r="D11" t="n">
-        <v>363</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43082.41666666666</v>
+        <v>43133.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>536</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43082.45833333334</v>
+        <v>43133.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43082.5</v>
+        <v>43133.5</v>
       </c>
       <c r="D14" t="n">
-        <v>337</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43082.54166666666</v>
+        <v>43133.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43082.58333333334</v>
+        <v>43133.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43082.625</v>
+        <v>43133.625</v>
       </c>
       <c r="D17" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43082.66666666666</v>
+        <v>43133.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43082.70833333334</v>
+        <v>43133.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43082.75</v>
+        <v>43133.75</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43082.79166666666</v>
+        <v>43133.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43082.83333333334</v>
+        <v>43133.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43082.875</v>
+        <v>43133.875</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43082.91666666666</v>
+        <v>43133.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43082.95833333334</v>
+        <v>43133.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
